--- a/Document/인턴_산출물_테스트케이스_v1.xlsx
+++ b/Document/인턴_산출물_테스트케이스_v1.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="로그인" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="196">
   <si>
     <t>단위테스트ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>틀렸다는 팝업창이 뜨면서 로그인 페이지 초기화 됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>DB에 있는 아이디와 비밀번호 입력</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -246,10 +242,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>로그아웃된 상태의 홈페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -322,22 +314,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>내 정보 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 바에서 '게시판' 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>왼쪽 바에서 '내 정보' 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>홈화면 body에서 'more' 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>게시판</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -346,14 +322,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>페이지당 출력 개수(10/15/20) 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 선태값에 맞게 게시물 수가 출력되어야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>해당 글의 상세 페이지로 이동</t>
   </si>
   <si>
@@ -393,14 +361,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>제목이나 내용 미입력 후 '저장하기' 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>작성한 게시글 세부조회 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>목록' 버튼 클릭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -409,14 +369,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>각 입력값 내용 길이 최대로 입력</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>inputbox에서 maxlength로 차단되어야함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상세조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -450,10 +402,6 @@
   </si>
   <si>
     <t>댓글 수정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>댓글이 수정되며, 댓글 등록자의 아이디와 마지막 글 작성 시간 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -529,30 +477,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>왼쪽 바에서 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>선택한 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원관리 목록 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Master와 회원관리 관리자가 홈화면 body에서 'more' 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그 외의 관리자가 홈화면 body에서 'more' 선택</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>접근제한 팝업창 뜸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>기능검증</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -625,10 +553,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>해당되는 관리자 페이지 보여줌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>관리자 등록 페이지 보여줌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -637,10 +561,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>관리자 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>회원 관리</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -650,10 +570,6 @@
   </si>
   <si>
     <t>Master와 회원 관리자가 등록하기 버튼 클릭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>회원 페이지로 이동</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -673,10 +589,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회원 관리 페이지로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>권한 목록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,6 +654,160 @@
   </si>
   <si>
     <t>각 관리자 로그인 시 왼쪽 탭 활성화 여부</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 값이 초기화 되며로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력한 값이 초기화 되며 로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그아웃되며 로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>에러메시지 보여주며 입력한 아이디값이 초기화 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일치하지 않다는 알림창과 함께 비밀번호 확인의 값이 초기화됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호와 비밀번호 확인의 형식이 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식이 불일치하다는 알림창과 함께 입력한 비밀번호 초기화</t>
+  </si>
+  <si>
+    <t>형식이 불일치하다는 알림창과 함께 입력한 비밀번호 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호 다시 입력하라는 알림창과 함께 비밀번호 입력이 초기화됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식이 틀리다는 에러메시지와 함께 입력한 전화번호 값 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식이 틀라다는 에러메시지 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수항목들 입력하지 않았다는 알림창이 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수항목들 입력하지 않았다는 알림창이 뜨면서 다음페이지로 넘어가지 않음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내비게이션 바에서 '게시판' 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내비게이션 바에서 '마이페이지' 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마이페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>입력하라는 메시지 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게시글 목록 페이지로 이동</t>
+  </si>
+  <si>
+    <t>게시글 목록 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목 미입력 후 '저장하기' 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목과 내용 모두 입력 후 '저장하기' 버튼 클릭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>댓글이 수정됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용을 입력하라는 알림창이 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호와 비밀번호 형식 불일치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>O</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지 초기화 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내비게이션 바에서 선택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>중복된 권한명이라는 팝업창 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아이디 형식에 대한 체크 후 에러메시지 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>관리자 목록 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>필수항목들 입력하지 않았다는 팝업창이 뜸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>해당되는 회원 정보 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대폰번호 형식에 대한 체크 후 에러메시지 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일 형식에 대한 체크 후 에러메시지 보여줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 목록 페이지로 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비밀번호와 비밀번호 확인의 형식이 틀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>형식이 틀리다는 팝업창과 함께 비밀번호 초기화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> O</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -864,7 +930,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -929,6 +995,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1516,21 +1585,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H53"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView showGridLines="0" topLeftCell="D27" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I41" sqref="I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="8.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="71.875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="42.625" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="58.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="55.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
@@ -1548,7 +1617,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -1566,7 +1635,7 @@
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -1581,7 +1650,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="16"/>
@@ -1628,7 +1697,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -1658,10 +1727,14 @@
         <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>157</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -1669,13 +1742,17 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F8" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -1683,13 +1760,17 @@
       <c r="C9" s="6"/>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="F9" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="6"/>
@@ -1697,13 +1778,17 @@
       <c r="C10" s="10"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>159</v>
+      </c>
+      <c r="G10" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10">
@@ -1713,17 +1798,21 @@
         <v>17</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D11" s="10"/>
       <c r="E11" s="10" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>60</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="10"/>
@@ -1731,27 +1820,35 @@
       <c r="C12" s="10"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>65</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
+      <c r="B13" s="6"/>
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10" t="s">
-        <v>59</v>
+        <v>162</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>164</v>
+      </c>
+      <c r="G13" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="10"/>
@@ -1759,13 +1856,17 @@
       <c r="C14" s="10"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>165</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
@@ -1773,75 +1874,95 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="6"/>
-      <c r="B16" s="6"/>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+      <c r="G16" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
+      <c r="A17" s="6"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="6"/>
       <c r="E17" s="6" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>169</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="10">
-        <v>3</v>
-      </c>
-      <c r="B18" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C18" s="10" t="s">
-        <v>74</v>
-      </c>
+      <c r="A18" s="10"/>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
       <c r="D18" s="10"/>
       <c r="E18" s="6" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>63</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="6"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
+      <c r="A19" s="10">
+        <v>3</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="D19" s="10"/>
       <c r="E19" s="6" t="s">
-        <v>77</v>
+        <v>170</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+        <v>71</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="6"/>
@@ -1849,79 +1970,97 @@
       <c r="C20" s="6"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>78</v>
+        <v>171</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+        <v>172</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>4</v>
-      </c>
+      <c r="A21" s="6"/>
       <c r="B21" s="6" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>75</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="6"/>
       <c r="B22" s="6"/>
       <c r="C22" s="6"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="6" t="s">
-        <v>84</v>
+      <c r="E22" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+        <v>78</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="6"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="12" t="s">
-        <v>85</v>
+      <c r="D23" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="6" t="s">
+        <v>176</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
       <c r="C24" s="6"/>
-      <c r="D24" s="6" t="s">
-        <v>87</v>
-      </c>
+      <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+        <v>82</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
@@ -1929,129 +2068,167 @@
       <c r="C25" s="6"/>
       <c r="D25" s="6"/>
       <c r="E25" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+        <v>177</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G25" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="6"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="6" t="s">
-        <v>89</v>
+      <c r="E26" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="G26" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="6"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="D27" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="G27" s="6" t="s">
+        <v>174</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="6"/>
-      <c r="B28" s="6"/>
+      <c r="A28" s="10"/>
+      <c r="B28" s="10"/>
       <c r="C28" s="6"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="12" t="s">
-        <v>95</v>
+      <c r="E28" s="6" t="s">
+        <v>88</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+        <v>89</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A29" s="6"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F29" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
+      <c r="A29" s="10"/>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10"/>
+      <c r="D29" s="10"/>
+      <c r="E29" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="6"/>
       <c r="B30" s="6"/>
       <c r="C30" s="6"/>
-      <c r="D30" s="6"/>
+      <c r="D30" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E30" s="6" t="s">
-        <v>85</v>
+        <v>176</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
+        <v>80</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
       <c r="C31" s="6"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="6" t="s">
-        <v>100</v>
+      <c r="E31" s="12" t="s">
+        <v>85</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10"/>
-      <c r="B32" s="10"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
+      <c r="A32" s="6"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="6"/>
       <c r="E32" s="6" t="s">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
+        <v>86</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
       <c r="D33" s="6" t="s">
-        <v>104</v>
+        <v>93</v>
       </c>
       <c r="E33" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+        <v>98</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6"/>
@@ -2059,27 +2236,37 @@
       <c r="C34" s="6"/>
       <c r="D34" s="6"/>
       <c r="E34" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+        <v>99</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6"/>
       <c r="B35" s="6"/>
       <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="12" t="s">
+      <c r="D35" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="E35" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
+      <c r="F35" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="G35" s="6" t="s">
+        <v>179</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="6"/>
@@ -2087,137 +2274,161 @@
       <c r="C36" s="6"/>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="F36" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+        <v>97</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="G36" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="6"/>
       <c r="B37" s="6"/>
       <c r="C37" s="6"/>
       <c r="D37" s="6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="E37" s="6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="F37" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+        <v>102</v>
+      </c>
+      <c r="G37" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
+      <c r="B38" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C38" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D38" s="6" t="s">
+        <v>92</v>
+      </c>
       <c r="E38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="F38" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+        <v>180</v>
+      </c>
+      <c r="F38" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="G38" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="6"/>
+      <c r="A39" s="6">
+        <v>5</v>
+      </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6"/>
-      <c r="D39" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="E39" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="F39" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="F40" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="E40" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>166</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="E41" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="F41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="E41" s="10" t="s">
+        <v>67</v>
+      </c>
+      <c r="F41" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>5</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D42" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F42" s="11" t="s">
+      <c r="A42" s="6"/>
+      <c r="B42" s="6"/>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="E42" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="F42" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+      <c r="G42" s="6" t="s">
+        <v>168</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>181</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
       <c r="B44" s="6"/>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F44" s="11" t="s">
-        <v>71</v>
-      </c>
+      <c r="E44" s="10"/>
+      <c r="F44" s="11"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
     </row>
@@ -2226,12 +2437,8 @@
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>63</v>
-      </c>
+      <c r="E45" s="10"/>
+      <c r="F45" s="11"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
@@ -2240,12 +2447,8 @@
       <c r="B46" s="6"/>
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
-      <c r="E46" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="F46" s="7" t="s">
-        <v>120</v>
-      </c>
+      <c r="E46" s="10"/>
+      <c r="F46" s="11"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
@@ -2264,8 +2467,8 @@
       <c r="B48" s="6"/>
       <c r="C48" s="6"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="11"/>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
     </row>
@@ -2274,8 +2477,8 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="11"/>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
     </row>
@@ -2284,40 +2487,10 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="11"/>
+      <c r="E50" s="6"/>
+      <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A51" s="6"/>
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-      <c r="F51" s="7"/>
-      <c r="G51" s="6"/>
-      <c r="H51" s="6"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-      <c r="F52" s="7"/>
-      <c r="G52" s="6"/>
-      <c r="H52" s="6"/>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A53" s="6"/>
-      <c r="B53" s="6"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
-      <c r="E53" s="6"/>
-      <c r="F53" s="6"/>
-      <c r="G53" s="6"/>
-      <c r="H53" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -2341,21 +2514,21 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7:H44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="19.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="3" customWidth="1"/>
-    <col min="5" max="5" width="71.875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="58.625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="17.625" style="3" customWidth="1"/>
+    <col min="1" max="1" width="4.875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="14.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="44.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="63.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="55.5" style="3" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="3" customWidth="1"/>
     <col min="9" max="16384" width="8.75" style="3"/>
   </cols>
@@ -2373,7 +2546,7 @@
         <v>1</v>
       </c>
       <c r="F1" s="14" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G1" s="14"/>
       <c r="H1" s="14"/>
@@ -2384,14 +2557,14 @@
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="4" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>8</v>
@@ -2406,7 +2579,7 @@
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="15" t="s">
-        <v>159</v>
+        <v>138</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="16"/>
@@ -2453,7 +2626,7 @@
         <v>12</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>13</v>
@@ -2483,10 +2656,14 @@
         <v>49</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
+        <v>182</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="6"/>
@@ -2494,13 +2671,17 @@
       <c r="C8" s="6"/>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
+        <v>112</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="6"/>
@@ -2508,33 +2689,41 @@
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
+        <v>54</v>
+      </c>
+      <c r="F9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="10">
         <v>2</v>
       </c>
       <c r="B10" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>72</v>
-      </c>
-      <c r="C10" s="10" t="s">
-        <v>74</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="6" t="s">
-        <v>126</v>
+        <v>184</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="10"/>
@@ -2542,27 +2731,43 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="6" t="s">
-        <v>178</v>
+        <v>156</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
+        <v>155</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
+      <c r="A12" s="10">
+        <v>3</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E12" s="6" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
+        <v>117</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="10"/>
@@ -2570,35 +2775,37 @@
       <c r="C13" s="10"/>
       <c r="D13" s="10"/>
       <c r="E13" s="6" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
+        <v>118</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="H13" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="10">
-        <v>3</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>133</v>
-      </c>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
+      <c r="C14" s="10"/>
       <c r="D14" s="10" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="E14" s="6" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+        <v>122</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="H14" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="10"/>
@@ -2606,29 +2813,35 @@
       <c r="C15" s="10"/>
       <c r="D15" s="10"/>
       <c r="E15" s="6" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
+        <v>124</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H15" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="10"/>
       <c r="B16" s="10"/>
       <c r="C16" s="10"/>
-      <c r="D16" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="D16" s="10"/>
       <c r="E16" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H16" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="10"/>
@@ -2636,27 +2849,37 @@
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
       <c r="E17" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="G17" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="10"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>129</v>
+      </c>
       <c r="E18" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
+        <v>120</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="10"/>
@@ -2664,29 +2887,35 @@
       <c r="C19" s="10"/>
       <c r="D19" s="10"/>
       <c r="E19" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F19" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
+        <v>123</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="10"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
-      <c r="D20" s="10" t="s">
-        <v>147</v>
-      </c>
+      <c r="D20" s="10"/>
       <c r="E20" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
+        <v>127</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="G20" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="10"/>
@@ -2694,121 +2923,155 @@
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
       <c r="E21" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
+        <v>128</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="G21" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
+      <c r="A22" s="10">
+        <v>4</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>116</v>
+      </c>
       <c r="E22" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="F22" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
+        <v>126</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="10"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="F23" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="G23" s="6"/>
-      <c r="H23" s="6"/>
+      <c r="D23" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G23" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A24" s="10">
-        <v>4</v>
-      </c>
-      <c r="B24" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E24" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="G24" s="6"/>
-      <c r="H24" s="6"/>
+      <c r="A24" s="10"/>
+      <c r="B24" s="10"/>
+      <c r="C24" s="10"/>
+      <c r="D24" s="10"/>
+      <c r="E24" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G24" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="10"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
-      <c r="D25" s="10" t="s">
-        <v>152</v>
-      </c>
+      <c r="D25" s="10"/>
       <c r="E25" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G25" s="6"/>
-      <c r="H25" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="G25" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="10"/>
       <c r="B26" s="10"/>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
-      <c r="E26" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="F26" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="6"/>
-      <c r="H26" s="6"/>
+      <c r="E26" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H26" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="10"/>
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="10"/>
-      <c r="E27" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="F27" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
+      <c r="E27" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="10"/>
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
+      <c r="D28" s="10" t="s">
+        <v>92</v>
+      </c>
       <c r="E28" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G28" s="6"/>
-      <c r="H28" s="6"/>
+        <v>61</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H28" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="10"/>
@@ -2816,95 +3079,117 @@
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
       <c r="E29" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H29" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="10">
+        <v>5</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="E30" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="H30" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H31" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="10"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="G32" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="H32" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33" s="10"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="F29" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G29" s="6"/>
-      <c r="H29" s="6"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A30" s="10"/>
-      <c r="B30" s="10"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="10"/>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="10">
-        <v>5</v>
-      </c>
-      <c r="B32" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="C32" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D32" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="E32" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A33" s="6"/>
-      <c r="B33" s="6"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="6"/>
-      <c r="E33" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="G33" s="6"/>
-      <c r="H33" s="6"/>
+      <c r="F33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="G33" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="H33" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="10"/>
-      <c r="B34" s="6"/>
+      <c r="B34" s="10"/>
       <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
-        <v>137</v>
-      </c>
+      <c r="D34" s="10"/>
       <c r="E34" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="G34" s="6"/>
-      <c r="H34" s="6"/>
+        <v>59</v>
+      </c>
+      <c r="G34" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H34" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="10"/>
@@ -2915,96 +3200,124 @@
         <v>66</v>
       </c>
       <c r="F35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="H35" s="23" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A36" s="10"/>
-      <c r="B36" s="10"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10" t="s">
-        <v>59</v>
-      </c>
       <c r="F36" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G36" s="6"/>
-      <c r="H36" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="G36" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="H36" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="10"/>
       <c r="B37" s="10"/>
       <c r="C37" s="10"/>
       <c r="D37" s="10"/>
-      <c r="E37" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="F37" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G37" s="6"/>
-      <c r="H37" s="6"/>
+      <c r="E37" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H37" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="6"/>
       <c r="B38" s="6"/>
       <c r="C38" s="6"/>
       <c r="D38" s="6"/>
-      <c r="E38" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F38" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
+      <c r="E38" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H38" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A39" s="10"/>
-      <c r="B39" s="10"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="F39" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G39" s="6"/>
-      <c r="H39" s="6"/>
+      <c r="A39" s="6"/>
+      <c r="B39" s="6"/>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="F39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="G39" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="H39" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="6"/>
       <c r="B40" s="6"/>
       <c r="C40" s="6"/>
       <c r="D40" s="6"/>
-      <c r="E40" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G40" s="6"/>
-      <c r="H40" s="6"/>
+      <c r="E40" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="G40" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="H40" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="6"/>
       <c r="B41" s="6"/>
       <c r="C41" s="6"/>
-      <c r="D41" s="6" t="s">
-        <v>160</v>
-      </c>
+      <c r="D41" s="6"/>
       <c r="E41" s="10" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="G41" s="6"/>
-      <c r="H41" s="6"/>
+        <v>68</v>
+      </c>
+      <c r="G41" s="11" t="s">
+        <v>190</v>
+      </c>
+      <c r="H41" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="6"/>
@@ -3012,27 +3325,35 @@
       <c r="C42" s="6"/>
       <c r="D42" s="6"/>
       <c r="E42" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>70</v>
-      </c>
-      <c r="G42" s="6"/>
-      <c r="H42" s="6"/>
+        <v>69</v>
+      </c>
+      <c r="G42" s="11" t="s">
+        <v>191</v>
+      </c>
+      <c r="H42" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="6"/>
       <c r="B43" s="6"/>
       <c r="C43" s="6"/>
       <c r="D43" s="6"/>
-      <c r="E43" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="F43" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="G43" s="6"/>
-      <c r="H43" s="6"/>
+      <c r="E43" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="H43" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="6"/>
@@ -3040,25 +3361,25 @@
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
       <c r="E44" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="G44" s="6"/>
-      <c r="H44" s="6"/>
+        <v>192</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H44" s="23" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="6"/>
       <c r="B45" s="6"/>
       <c r="C45" s="6"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>161</v>
-      </c>
+      <c r="E45" s="6"/>
+      <c r="F45" s="7"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
     </row>
@@ -3068,7 +3389,6 @@
       <c r="C46" s="6"/>
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
-      <c r="F46" s="7"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
     </row>
@@ -3078,6 +3398,7 @@
       <c r="C47" s="6"/>
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
+      <c r="F47" s="7"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
     </row>
@@ -3096,7 +3417,7 @@
       <c r="B49" s="6"/>
       <c r="C49" s="6"/>
       <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
+      <c r="E49" s="12"/>
       <c r="F49" s="7"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -3106,8 +3427,8 @@
       <c r="B50" s="6"/>
       <c r="C50" s="6"/>
       <c r="D50" s="6"/>
-      <c r="E50" s="12"/>
-      <c r="F50" s="7"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="11"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
     </row>
@@ -3116,14 +3437,14 @@
       <c r="B51" s="6"/>
       <c r="C51" s="6"/>
       <c r="D51" s="6"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="11"/>
+      <c r="E51" s="6"/>
+      <c r="F51" s="7"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A52" s="6"/>
-      <c r="B52" s="6"/>
+      <c r="A52" s="10"/>
+      <c r="B52" s="10"/>
       <c r="C52" s="6"/>
       <c r="D52" s="6"/>
       <c r="E52" s="6"/>
@@ -3134,18 +3455,18 @@
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="10"/>
       <c r="B53" s="10"/>
-      <c r="C53" s="6"/>
-      <c r="D53" s="6"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="10"/>
       <c r="E53" s="6"/>
       <c r="F53" s="7"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A54" s="10"/>
-      <c r="B54" s="10"/>
-      <c r="C54" s="10"/>
-      <c r="D54" s="10"/>
+      <c r="A54" s="6"/>
+      <c r="B54" s="6"/>
+      <c r="C54" s="6"/>
+      <c r="D54" s="6"/>
       <c r="E54" s="6"/>
       <c r="F54" s="7"/>
       <c r="G54" s="6"/>
@@ -3157,7 +3478,6 @@
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
       <c r="E55" s="6"/>
-      <c r="F55" s="7"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
     </row>
@@ -3166,7 +3486,8 @@
       <c r="B56" s="6"/>
       <c r="C56" s="6"/>
       <c r="D56" s="6"/>
-      <c r="E56" s="6"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="7"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
     </row>
@@ -3175,7 +3496,7 @@
       <c r="B57" s="6"/>
       <c r="C57" s="6"/>
       <c r="D57" s="6"/>
-      <c r="E57" s="12"/>
+      <c r="E57" s="6"/>
       <c r="F57" s="7"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -3186,7 +3507,7 @@
       <c r="C58" s="6"/>
       <c r="D58" s="6"/>
       <c r="E58" s="6"/>
-      <c r="F58" s="7"/>
+      <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
     </row>
@@ -3235,8 +3556,8 @@
       <c r="B63" s="6"/>
       <c r="C63" s="6"/>
       <c r="D63" s="6"/>
-      <c r="E63" s="6"/>
-      <c r="F63" s="6"/>
+      <c r="E63" s="10"/>
+      <c r="F63" s="11"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
     </row>
@@ -3265,8 +3586,8 @@
       <c r="B66" s="6"/>
       <c r="C66" s="6"/>
       <c r="D66" s="6"/>
-      <c r="E66" s="10"/>
-      <c r="F66" s="11"/>
+      <c r="E66" s="6"/>
+      <c r="F66" s="7"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
     </row>
@@ -3285,8 +3606,8 @@
       <c r="B68" s="6"/>
       <c r="C68" s="6"/>
       <c r="D68" s="6"/>
-      <c r="E68" s="6"/>
-      <c r="F68" s="7"/>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
     </row>
@@ -3325,8 +3646,8 @@
       <c r="B72" s="6"/>
       <c r="C72" s="6"/>
       <c r="D72" s="6"/>
-      <c r="E72" s="10"/>
-      <c r="F72" s="11"/>
+      <c r="E72" s="6"/>
+      <c r="F72" s="7"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
     </row>
@@ -3346,19 +3667,9 @@
       <c r="C74" s="6"/>
       <c r="D74" s="6"/>
       <c r="E74" s="6"/>
-      <c r="F74" s="7"/>
+      <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="6"/>
-      <c r="B75" s="6"/>
-      <c r="C75" s="6"/>
-      <c r="D75" s="6"/>
-      <c r="E75" s="6"/>
-      <c r="F75" s="6"/>
-      <c r="G75" s="6"/>
-      <c r="H75" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3394,33 +3705,33 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>162</v>
+        <v>140</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>146</v>
       </c>
       <c r="G2" t="s">
-        <v>175</v>
+        <v>153</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="13" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>164</v>
+        <v>142</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>163</v>
+        <v>141</v>
       </c>
       <c r="H3" s="13" t="s">
-        <v>176</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -3428,13 +3739,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>165</v>
+        <v>143</v>
       </c>
       <c r="D4" s="13">
         <v>11</v>
       </c>
       <c r="E4" s="13" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="G4" s="13">
         <v>1</v>
@@ -3448,13 +3759,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="D5" s="13">
         <v>12</v>
       </c>
       <c r="E5" s="13" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="G5" s="13">
         <v>1</v>
@@ -3468,13 +3779,13 @@
         <v>3</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="D6" s="13">
         <v>13</v>
       </c>
       <c r="E6" s="13" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="G6" s="13">
         <v>1</v>
@@ -3488,7 +3799,7 @@
         <v>14</v>
       </c>
       <c r="E7" s="13" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="G7" s="13">
         <v>1</v>
